--- a/assessments/writing/DAACS-Writing-Rubric.xlsx
+++ b/assessments/writing/DAACS-Writing-Rubric.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,29 +101,6 @@
     <t>cohesion</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The essay uses relevant survey results and feedback to provide a detailed </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">summary </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>of the student’s strengths and weaknesses in terms of self-regulated learning.</t>
-    </r>
-  </si>
-  <si>
     <t>The discussion of suggestions for improvement in SRL are logically and explicitly related to the survey results and feedback, and developed in sufficient depth.</t>
   </si>
   <si>
@@ -226,6 +203,29 @@
   </si>
   <si>
     <t xml:space="preserve">Careful editing was needed to correct frequent, distracting errors in spelling, punctuation, and/or capitalization. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The essay uses relevant survey results and feedback to provide a detailed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">summary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>of the student's strengths and weaknesses in terms of self-regulated learning.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -819,8 +819,8 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,13 +857,13 @@
         <v>14</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="91" x14ac:dyDescent="0.2">
@@ -874,13 +874,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -891,13 +891,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -908,13 +908,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
@@ -925,13 +925,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" ht="192" x14ac:dyDescent="0.2">
@@ -942,13 +942,13 @@
         <v>22</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -962,10 +962,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -979,7 +979,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="44" t="s">
         <v>21</v>
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
